--- a/biology/Médecine/1658_en_santé_et_médecine/1658_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1658_en_santé_et_médecine/1658_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1658_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1658_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1658 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1658_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1658_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20 août : madame de Miramion fonde une congrégation de droit diocésain appelée « Filles de Sainte-Geneviève » pour l'enseignement des pauvres et le soin des malades[1].
-Fondation à Tours de l'hôpital général de la Charité, après un arrêt du conseil d’État décidant la construction d'un hôpital général dans chaque grande ville du royaume[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20 août : madame de Miramion fonde une congrégation de droit diocésain appelée « Filles de Sainte-Geneviève » pour l'enseignement des pauvres et le soin des malades.
+Fondation à Tours de l'hôpital général de la Charité, après un arrêt du conseil d’État décidant la construction d'un hôpital général dans chaque grande ville du royaume.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1658_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1658_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication posthume de Arzneibüchlein, pharmacopée compilée par  Anna von Diesbach (1574-1651)[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Publication posthume de Arzneibüchlein, pharmacopée compilée par  Anna von Diesbach (1574-1651).</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1658_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1658_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +588,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 avril : Pierre Pomet (mort en 1699), pharmacien français.
 8 avril : Georges Mareschal de Bièvre (mort en 1736), premier chirurgien et confident du roi Louis XIV.
 Date à préciser
-Nicolas Andry de Boisregard (mort en 1742), médecin et homme de lettres français, renommé pour ses traitements contre les vers intestinaux[4].</t>
+Nicolas Andry de Boisregard (mort en 1742), médecin et homme de lettres français, renommé pour ses traitements contre les vers intestinaux.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1658_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1658_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>22 octobre : Charles Bouvard (né en 1572), médecin et chimiste français.
 Date à préciser
